--- a/base_de_dados/codigo_ref.xlsx
+++ b/base_de_dados/codigo_ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.nascimento\Downloads\VINCULOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.nascimento\Desktop\vync\base_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC5638-7B1F-4274-823F-B1B79F731B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD224A-4225-4DD1-9F29-E630B59450EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="56655" yWindow="3990" windowWidth="15375" windowHeight="7875" xr2:uid="{10885D80-0549-415A-AE51-520D58A75BFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10885D80-0549-415A-AE51-520D58A75BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Códigos para Cadastro" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>IATA</t>
   </si>
   <si>
-    <t>Número da Tabela</t>
-  </si>
-  <si>
     <t>PACKAGE 2</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>.COM BALCÃO</t>
   </si>
   <si>
-    <t>PACKAGE4 (FRONTEIRA)</t>
-  </si>
-  <si>
     <t>PACKAGE 1</t>
   </si>
   <si>
@@ -414,37 +408,13 @@
     <t>VRG</t>
   </si>
   <si>
-    <t>PICKUP (de 100 á 200)</t>
-  </si>
-  <si>
-    <t>PACKAGE 2 (FRONTEIRA)</t>
-  </si>
-  <si>
-    <t>.COM 2 (FRONTEIRA)</t>
-  </si>
-  <si>
     <t>.COM 1</t>
   </si>
   <si>
-    <t>PICKUP (Menor que 100)</t>
-  </si>
-  <si>
-    <t>PACKAGE 1,5</t>
-  </si>
-  <si>
-    <t>.COM 1,5</t>
-  </si>
-  <si>
     <t>XAP</t>
   </si>
   <si>
     <t>PACKAGE MELHOR ENVIO</t>
-  </si>
-  <si>
-    <t>PACKAGE 1 (FRONTEIRA)</t>
-  </si>
-  <si>
-    <t>.COM 1 (FRONTEIRA)</t>
   </si>
   <si>
     <t>IND QUIMICAS TRES PODERES - AC MIGUEL - CNPJ - 55352223000100</t>
@@ -805,6 +775,36 @@
   </si>
   <si>
     <t>028465-4</t>
+  </si>
+  <si>
+    <t>Cod_Tabela</t>
+  </si>
+  <si>
+    <t>.COM 1 FRONTEIRA</t>
+  </si>
+  <si>
+    <t>.COM 1.5</t>
+  </si>
+  <si>
+    <t>.COM 2 FRONTEIRA</t>
+  </si>
+  <si>
+    <t>PACKAGE 1 FRONTEIRA</t>
+  </si>
+  <si>
+    <t>PACKAGE 1.5</t>
+  </si>
+  <si>
+    <t>PACKAGE 2 FRONTEIRA</t>
+  </si>
+  <si>
+    <t>PACKAGE 4 FRONTEIRA</t>
+  </si>
+  <si>
+    <t>PICKUP 100_200</t>
+  </si>
+  <si>
+    <t>PICKUP Menor100</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,15 +1565,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>12463</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>10461</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>11986</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>11108</v>
@@ -1614,21 +1614,21 @@
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>12006</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>9856</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>12019</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>10126</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <v>10462</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>12482</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>12488</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>12590</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>12591</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>12592</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>12593</v>
@@ -1735,21 +1735,21 @@
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
         <v>12612</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>12618</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>12619</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <v>11988</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>12717</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>12718</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>12719</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>12720</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>12721</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>12722</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>12723</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
         <v>12724</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>12725</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <v>12726</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2">
         <v>12727</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2">
         <v>12728</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
         <v>12729</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
         <v>12730</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2">
         <v>12731</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
         <v>12732</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>12733</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
         <v>12445</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2">
         <v>12734</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>12455</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2">
         <v>12735</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <v>12736</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
         <v>12737</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2">
         <v>12738</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2">
         <v>12739</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <v>12740</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <v>12741</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
         <v>12742</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
         <v>12743</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
         <v>12744</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <v>12745</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C52" s="2">
         <v>12454</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
         <v>12483</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2">
         <v>12747</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2">
         <v>12444</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2">
         <v>12748</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
         <v>12749</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2">
         <v>12750</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
         <v>12751</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2">
         <v>12752</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2">
         <v>12753</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
         <v>12754</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2">
         <v>12755</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2">
         <v>12756</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="2">
         <v>12438</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2">
         <v>12757</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2">
         <v>12758</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2">
         <v>12759</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2">
         <v>12760</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2">
         <v>12761</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2">
         <v>12762</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2">
         <v>12763</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2">
         <v>12764</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2">
         <v>12765</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2">
         <v>12766</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="2">
         <v>12436</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2">
         <v>12767</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2">
         <v>12768</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2">
         <v>12770</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2">
         <v>12769</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2">
         <v>12771</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="2">
         <v>12772</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2">
         <v>12773</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2">
         <v>12774</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="2">
         <v>12775</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2">
         <v>12776</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2">
         <v>12777</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2">
         <v>12778</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2">
         <v>12779</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2">
         <v>12780</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2">
         <v>12781</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" s="2">
         <v>12800</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2">
         <v>12801</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2">
         <v>12865</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2">
         <v>12866</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="2">
         <v>12871</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C97" s="2">
         <v>12874</v>
@@ -2626,21 +2626,21 @@
     </row>
     <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C98" s="2">
         <v>12875</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="2">
         <v>9727</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2">
         <v>9728</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="2">
         <v>11532</v>
@@ -2670,21 +2670,21 @@
     </row>
     <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" s="2">
         <v>12021</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" s="2">
         <v>12932</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" s="2">
         <v>12933</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="2">
         <v>10640</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2">
         <v>10883</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="2">
         <v>11255</v>
@@ -2738,22 +2738,22 @@
     </row>
     <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2">
         <v>11256</v>
       </c>
       <c r="G108" s="24"/>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2">
         <v>11032</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="3">
         <v>12020</v>
@@ -2772,21 +2772,21 @@
     </row>
     <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C111" s="7">
         <v>9410</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112" s="2">
         <v>9409</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" s="2">
         <v>12025</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114" s="2">
         <v>10216</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115" s="2">
         <v>10215</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="2">
         <v>9479</v>
@@ -2838,21 +2838,21 @@
     </row>
     <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C117" s="2">
         <v>12966</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2">
         <v>11298</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2">
         <v>10060</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" s="2">
         <v>12977</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C121" s="2">
         <v>13034</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2">
         <v>13035</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2">
         <v>13036</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2">
         <v>13037</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C125" s="2">
         <v>13039</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C126" s="2">
         <v>13038</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C127" s="2">
         <v>13040</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C128" s="2">
         <v>13041</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2">
         <v>13042</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C130" s="2">
         <v>13043</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2">
         <v>13044</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C132" s="2">
         <v>12023</v>
@@ -3014,10 +3014,10 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C133" s="2">
         <v>12024</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C134" s="2">
         <v>13045</v>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C135" s="2">
         <v>13047</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C136" s="2">
         <v>13048</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2">
         <v>13049</v>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2">
         <v>13050</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2">
         <v>13051</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2">
         <v>13052</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C141" s="2">
         <v>13053</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" s="2">
         <v>13054</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C143" s="2">
         <v>13055</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2">
         <v>13056</v>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" s="2">
         <v>12027</v>
@@ -3157,10 +3157,10 @@
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2">
         <v>13057</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C147" s="2">
         <v>12028</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2">
         <v>13058</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C149" s="2">
         <v>13059</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C150" s="2">
         <v>13046</v>
@@ -3212,10 +3212,10 @@
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2">
         <v>13060</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C152" s="2">
         <v>13061</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2">
         <v>13062</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154" s="2">
         <v>12029</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C155" s="2">
         <v>13063</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C156" s="2">
         <v>13064</v>
@@ -3278,10 +3278,10 @@
     </row>
     <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C157" s="2">
         <v>13065</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C158" s="2">
         <v>13066</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" s="2">
         <v>11152</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C160" s="3">
         <v>13067</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2">
         <v>13068</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C162" s="2">
         <v>13069</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C163" s="2">
         <v>13070</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C164" s="2">
         <v>13071</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C165" s="2">
         <v>12032</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C166" s="2">
         <v>13072</v>
@@ -3438,10 +3438,10 @@
     </row>
     <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2">
         <v>13073</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" s="2">
         <v>11378</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C169" s="2">
         <v>12874</v>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C170" s="2">
         <v>12875</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" s="2">
         <v>12412</v>
@@ -3533,21 +3533,21 @@
     </row>
     <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" s="2">
         <v>12413</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C173" s="2">
         <v>9980</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C174" s="2">
         <v>9741</v>
       </c>
       <c r="G174" s="13"/>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" s="3">
         <v>9716</v>
@@ -3580,22 +3580,22 @@
     </row>
     <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" s="2">
         <v>9717</v>
       </c>
       <c r="G176" s="13"/>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C177" s="2">
         <v>9694</v>
@@ -3604,22 +3604,22 @@
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" s="2">
         <v>9695</v>
       </c>
       <c r="G178" s="13"/>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C179" s="2">
         <v>10167</v>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180" s="2">
         <v>10170</v>
@@ -3648,12 +3648,12 @@
       <c r="J180" s="10"/>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C181" s="2">
         <v>9327</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C182" s="2">
         <v>9708</v>
@@ -3682,12 +3682,12 @@
       <c r="J182" s="10"/>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C183" s="2">
         <v>13088</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C184" s="2">
         <v>13090</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C185" s="2">
         <v>13124</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C186" s="2">
         <v>13126</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C187" s="2">
         <v>13127</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188" s="2">
         <v>13128</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C189" s="2">
         <v>13129</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C190" s="2">
         <v>13130</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C191" s="2">
         <v>13131</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C192" s="2">
         <v>13132</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C193" s="2">
         <v>13133</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C194" s="2">
         <v>13134</v>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C195" s="2">
         <v>13172</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C196" s="2">
         <v>13175</v>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C197" s="2">
         <v>13174</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198" s="2">
         <v>13176</v>
@@ -3908,21 +3908,21 @@
     </row>
     <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C199" s="2">
         <v>13173</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C200" s="2">
         <v>11947</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="2">
         <v>11948</v>
@@ -3941,10 +3941,10 @@
     </row>
     <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C202" s="2">
         <v>11153</v>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C203" s="2">
         <v>13295</v>
@@ -3963,21 +3963,21 @@
     </row>
     <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C204" s="2">
         <v>11151</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C205" s="2">
         <v>10859</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C206" s="2">
         <v>10860</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" s="2">
         <v>13335</v>
@@ -4010,22 +4010,22 @@
     </row>
     <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208" s="2">
         <v>13334</v>
       </c>
       <c r="F208" s="13"/>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C209" s="2">
         <v>13530</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C210" s="2">
         <v>13534</v>
@@ -4047,12 +4047,7 @@
   <autoFilter ref="A1:C210" xr:uid="{D5C3FC00-6C5F-43D9-B41F-1DEC1B57846E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="PACKAGE 2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GYN"/>
+        <filter val="PACKAGE 1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4090,7 +4085,7 @@
   <sheetData>
     <row r="1" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F1" s="15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1:G32">RIGHT(F1:F32,14)</f>
@@ -4099,7 +4094,7 @@
     </row>
     <row r="2" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G2" t="str">
         <v>20939113000164</v>
@@ -4107,7 +4102,7 @@
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F3" s="15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G3" t="str">
         <v>28861166000111</v>
@@ -4115,7 +4110,7 @@
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F4" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G4" t="str">
         <v>27470966000149</v>
@@ -4123,7 +4118,7 @@
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F5" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G5" t="str">
         <v>11715768000168</v>
@@ -4131,7 +4126,7 @@
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G6" t="str">
         <v>31853551000121</v>
@@ -4139,7 +4134,7 @@
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G7" t="str">
         <v>27233243000126</v>
@@ -4147,7 +4142,7 @@
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G8" t="str">
         <v>03800332000149</v>
@@ -4155,7 +4150,7 @@
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G9" t="str">
         <v>21336834000142</v>
@@ -4163,7 +4158,7 @@
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G10" t="str">
         <v>03800332000149</v>
@@ -4171,7 +4166,7 @@
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G11" t="str">
         <v>57619157000117</v>
@@ -4179,7 +4174,7 @@
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G12" t="str">
         <v>14313623000129</v>
@@ -4187,7 +4182,7 @@
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G13" t="str">
         <v>27885158000142</v>
@@ -4195,7 +4190,7 @@
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G14" t="str">
         <v>04133566000142</v>
@@ -4203,7 +4198,7 @@
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G15" t="str">
         <v>23684247000170</v>
@@ -4211,7 +4206,7 @@
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F16" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G16" t="str">
         <v>27176052000170</v>
@@ -4219,7 +4214,7 @@
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G17" t="str">
         <v>35160286000157</v>
@@ -4227,7 +4222,7 @@
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="15" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G18" t="str">
         <v>55359947000185</v>
@@ -4235,7 +4230,7 @@
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G19" t="str">
         <v>07841060000186</v>
@@ -4243,7 +4238,7 @@
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="15" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G20" t="str">
         <v>17185589000142</v>
@@ -4251,7 +4246,7 @@
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G21" t="str">
         <v>38077662000132</v>
@@ -4259,7 +4254,7 @@
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G22" t="str">
         <v>32345279000131</v>
@@ -4267,7 +4262,7 @@
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G23" t="str">
         <v>23268597000155</v>
@@ -4275,7 +4270,7 @@
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G24" t="str">
         <v>15177035000178</v>
@@ -4283,7 +4278,7 @@
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="15" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G25" t="str">
         <v>17777802000105</v>
@@ -4291,7 +4286,7 @@
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G26" t="str">
         <v>14975022000181</v>
@@ -4299,7 +4294,7 @@
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G27" t="str">
         <v>12113470000140</v>
@@ -4307,7 +4302,7 @@
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G28" t="str">
         <v>67314005000160</v>
@@ -4315,7 +4310,7 @@
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="15" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G29" t="str">
         <v>40022744000121</v>
@@ -4323,7 +4318,7 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G30" t="str">
         <v>14584180000100</v>
@@ -4331,7 +4326,7 @@
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="15" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G31" t="str">
         <v>23268597000155</v>
@@ -4339,7 +4334,7 @@
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G32" t="str">
         <v>30864319000126</v>
@@ -4375,191 +4370,191 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" s="21">
         <v>13501</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D3" s="21">
         <v>13501</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D4" s="21">
         <v>13501</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D5" s="21">
         <v>13501</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D6" s="21">
         <v>13501</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D7" s="21">
         <v>13500</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D8" s="21">
         <v>13500</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4567,13 +4562,13 @@
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="F10" s="25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4581,112 +4576,112 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="F11" s="25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G13" s="30">
         <v>66305517000105</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="26" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="26" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/base_de_dados/codigo_ref.xlsx
+++ b/base_de_dados/codigo_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.nascimento\Desktop\vync\base_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD224A-4225-4DD1-9F29-E630B59450EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02BC780-0567-4B08-8F10-BF99FF9C9772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{10885D80-0549-415A-AE51-520D58A75BFC}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{10885D80-0549-415A-AE51-520D58A75BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Códigos para Cadastro" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Planilha2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Códigos para Cadastro'!$A$1:$C$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Códigos para Cadastro'!$A$1:$C$209</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,11 +50,9 @@
     <author>tc={8E18AFEC-BECC-4A18-AA7A-95A693A7FEF1}</author>
     <author>tc={F3E36941-5999-4E4A-8E68-15E996AA701D}</author>
     <author>tc={1CA83608-60B8-4D6B-80C5-CB36FC3E9662}</author>
-    <author>tc={A24FC0D3-B5E0-4D22-BFA9-BEE3293E0C64}</author>
-    <author>tc={D76ACC8F-96C5-46C9-B6E3-CD771FA3FA25}</author>
   </authors>
   <commentList>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{5C68690F-D590-4428-93AB-7E144A91EB4E}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{5C68690F-D590-4428-93AB-7E144A91EB4E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +60,7 @@
     Valores de Minas, com Iata SAO.</t>
       </text>
     </comment>
-    <comment ref="A97" authorId="1" shapeId="0" xr:uid="{8FE71A4F-5BFB-4BB0-8CD8-0BB04EAC3D15}">
+    <comment ref="A98" authorId="1" shapeId="0" xr:uid="{8FE71A4F-5BFB-4BB0-8CD8-0BB04EAC3D15}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +68,7 @@
     Valores de Minas, com Iata RIO.</t>
       </text>
     </comment>
-    <comment ref="A98" authorId="2" shapeId="0" xr:uid="{64E8B45D-0A4B-450F-AB0F-47E4CFC3A009}">
+    <comment ref="A99" authorId="2" shapeId="0" xr:uid="{64E8B45D-0A4B-450F-AB0F-47E4CFC3A009}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +76,7 @@
     Valores de Minas, com Iata RIO.</t>
       </text>
     </comment>
-    <comment ref="A107" authorId="3" shapeId="0" xr:uid="{D3DD366A-3FB2-433E-9685-A61DB250F43A}">
+    <comment ref="A108" authorId="3" shapeId="0" xr:uid="{D3DD366A-3FB2-433E-9685-A61DB250F43A}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +84,7 @@
     Valores de minas com IATA SAO</t>
       </text>
     </comment>
-    <comment ref="A108" authorId="4" shapeId="0" xr:uid="{B54447C9-7357-402A-9B7D-9DE1AF33FC5E}">
+    <comment ref="A109" authorId="4" shapeId="0" xr:uid="{B54447C9-7357-402A-9B7D-9DE1AF33FC5E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +92,7 @@
     Valores de minas com IATA SAO</t>
       </text>
     </comment>
-    <comment ref="A169" authorId="5" shapeId="0" xr:uid="{E3E837DB-3BDB-40B9-9CF2-A11D746E2884}">
+    <comment ref="A170" authorId="5" shapeId="0" xr:uid="{E3E837DB-3BDB-40B9-9CF2-A11D746E2884}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +100,7 @@
     Valores de Minas, com Iata RIO.</t>
       </text>
     </comment>
-    <comment ref="A170" authorId="6" shapeId="0" xr:uid="{8E18AFEC-BECC-4A18-AA7A-95A693A7FEF1}">
+    <comment ref="A171" authorId="6" shapeId="0" xr:uid="{8E18AFEC-BECC-4A18-AA7A-95A693A7FEF1}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -110,7 +108,7 @@
     Valores de Minas, com Iata RIO.</t>
       </text>
     </comment>
-    <comment ref="A171" authorId="7" shapeId="0" xr:uid="{F3E36941-5999-4E4A-8E68-15E996AA701D}">
+    <comment ref="A172" authorId="7" shapeId="0" xr:uid="{F3E36941-5999-4E4A-8E68-15E996AA701D}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,28 +116,12 @@
     Valores de Minas, com Iata SAO.</t>
       </text>
     </comment>
-    <comment ref="A172" authorId="8" shapeId="0" xr:uid="{1CA83608-60B8-4D6B-80C5-CB36FC3E9662}">
+    <comment ref="A173" authorId="8" shapeId="0" xr:uid="{1CA83608-60B8-4D6B-80C5-CB36FC3E9662}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Valores de Minas, com Iata SAO.</t>
-      </text>
-    </comment>
-    <comment ref="A207" authorId="9" shapeId="0" xr:uid="{A24FC0D3-B5E0-4D22-BFA9-BEE3293E0C64}">
-      <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Valores de MS, com Iata SAO.</t>
-      </text>
-    </comment>
-    <comment ref="A208" authorId="10" shapeId="0" xr:uid="{D76ACC8F-96C5-46C9-B6E3-CD771FA3FA25}">
-      <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Valores de MS, com Iata SAO.</t>
       </text>
     </comment>
   </commentList>
@@ -169,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="204">
   <si>
     <t>Modalidade</t>
   </si>
@@ -1500,38 +1482,32 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A17" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{5C68690F-D590-4428-93AB-7E144A91EB4E}">
+  <threadedComment ref="A18" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{5C68690F-D590-4428-93AB-7E144A91EB4E}">
     <text>Valores de Minas, com Iata SAO.</text>
   </threadedComment>
-  <threadedComment ref="A97" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{8FE71A4F-5BFB-4BB0-8CD8-0BB04EAC3D15}">
+  <threadedComment ref="A98" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{8FE71A4F-5BFB-4BB0-8CD8-0BB04EAC3D15}">
     <text>Valores de Minas, com Iata RIO.</text>
   </threadedComment>
-  <threadedComment ref="A98" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{64E8B45D-0A4B-450F-AB0F-47E4CFC3A009}">
+  <threadedComment ref="A99" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{64E8B45D-0A4B-450F-AB0F-47E4CFC3A009}">
     <text>Valores de Minas, com Iata RIO.</text>
   </threadedComment>
-  <threadedComment ref="A107" dT="2021-09-15T11:50:15.97" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{D3DD366A-3FB2-433E-9685-A61DB250F43A}">
+  <threadedComment ref="A108" dT="2021-09-15T11:50:15.97" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{D3DD366A-3FB2-433E-9685-A61DB250F43A}">
     <text>Valores de minas com IATA SAO</text>
   </threadedComment>
-  <threadedComment ref="A108" dT="2021-09-15T11:50:22.07" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{B54447C9-7357-402A-9B7D-9DE1AF33FC5E}">
+  <threadedComment ref="A109" dT="2021-09-15T11:50:22.07" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{B54447C9-7357-402A-9B7D-9DE1AF33FC5E}">
     <text>Valores de minas com IATA SAO</text>
   </threadedComment>
-  <threadedComment ref="A169" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{E3E837DB-3BDB-40B9-9CF2-A11D746E2884}">
+  <threadedComment ref="A170" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{E3E837DB-3BDB-40B9-9CF2-A11D746E2884}">
     <text>Valores de Minas, com Iata RIO.</text>
   </threadedComment>
-  <threadedComment ref="A170" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{8E18AFEC-BECC-4A18-AA7A-95A693A7FEF1}">
+  <threadedComment ref="A171" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{8E18AFEC-BECC-4A18-AA7A-95A693A7FEF1}">
     <text>Valores de Minas, com Iata RIO.</text>
   </threadedComment>
-  <threadedComment ref="A171" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{F3E36941-5999-4E4A-8E68-15E996AA701D}">
+  <threadedComment ref="A172" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{F3E36941-5999-4E4A-8E68-15E996AA701D}">
     <text>Valores de Minas, com Iata SAO.</text>
   </threadedComment>
-  <threadedComment ref="A172" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{1CA83608-60B8-4D6B-80C5-CB36FC3E9662}">
+  <threadedComment ref="A173" dT="2021-08-20T13:12:37.12" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{1CA83608-60B8-4D6B-80C5-CB36FC3E9662}">
     <text>Valores de Minas, com Iata SAO.</text>
-  </threadedComment>
-  <threadedComment ref="A207" dT="2021-10-25T19:27:24.57" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{A24FC0D3-B5E0-4D22-BFA9-BEE3293E0C64}">
-    <text>Valores de MS, com Iata SAO.</text>
-  </threadedComment>
-  <threadedComment ref="A208" dT="2021-10-25T19:27:54.46" personId="{C8136389-B619-4213-B673-9E4345CC284E}" id="{D76ACC8F-96C5-46C9-B6E3-CD771FA3FA25}">
-    <text>Valores de MS, com Iata SAO.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1539,10 +1515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C3FC00-6C5F-43D9-B41F-1DEC1B57846E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O210"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+      <selection activeCell="J214" sqref="J214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,14 +1556,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>10461</v>
+        <v>13877</v>
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1595,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>11986</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1606,10 +1582,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>11108</v>
+        <v>11986</v>
       </c>
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1617,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>12006</v>
+        <v>11108</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1628,43 +1604,43 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>9856</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7">
-        <v>12019</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9856</v>
       </c>
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
-        <v>10126</v>
+      <c r="C9" s="7">
+        <v>12019</v>
       </c>
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>10462</v>
+        <v>10126</v>
       </c>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1672,21 +1648,21 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>12482</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>12488</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1694,98 +1670,98 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>12590</v>
+        <v>12488</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>12591</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>12592</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>12593</v>
+        <v>12592</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>12612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12618</v>
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2">
+        <v>12618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
         <v>12619</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>11988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12717</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1793,10 +1769,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
-        <v>12718</v>
+        <v>12717</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1804,10 +1780,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>12719</v>
+        <v>12718</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1815,10 +1791,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
-        <v>12720</v>
+        <v>12719</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1826,10 +1802,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
-        <v>12721</v>
+        <v>12720</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1837,10 +1813,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
-        <v>12722</v>
+        <v>12721</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1848,10 +1824,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
-        <v>12723</v>
+        <v>12722</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1859,10 +1835,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>12724</v>
+        <v>12723</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1870,10 +1846,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>12725</v>
+        <v>12724</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1881,10 +1857,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2">
-        <v>12726</v>
+        <v>12725</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1892,10 +1868,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
-        <v>12727</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1903,10 +1879,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
-        <v>12728</v>
+        <v>12727</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1914,10 +1890,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2">
-        <v>12729</v>
+        <v>12728</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1925,10 +1901,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
-        <v>12730</v>
+        <v>12729</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1936,10 +1912,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>12731</v>
+        <v>12730</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1947,10 +1923,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>12732</v>
+        <v>12731</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1958,10 +1934,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>12733</v>
+        <v>12732</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1969,21 +1945,21 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="2">
         <v>12445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>12734</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1991,10 +1967,10 @@
         <v>29</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2">
-        <v>12455</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2002,10 +1978,10 @@
         <v>29</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>12735</v>
+        <v>12455</v>
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2013,10 +1989,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2">
-        <v>12736</v>
+        <v>12735</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2024,10 +2000,10 @@
         <v>29</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
-        <v>12737</v>
+        <v>12736</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2035,10 +2011,10 @@
         <v>29</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>12738</v>
+        <v>12737</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2046,10 +2022,10 @@
         <v>29</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
-        <v>12739</v>
+        <v>12738</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2057,10 +2033,10 @@
         <v>29</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2">
-        <v>12740</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2068,10 +2044,10 @@
         <v>29</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2">
-        <v>12741</v>
+        <v>12740</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2079,10 +2055,10 @@
         <v>29</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2">
-        <v>12742</v>
+        <v>12741</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2090,10 +2066,10 @@
         <v>29</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2">
-        <v>12743</v>
+        <v>12742</v>
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2101,10 +2077,10 @@
         <v>29</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2">
-        <v>12744</v>
+        <v>12743</v>
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2112,10 +2088,10 @@
         <v>29</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2">
-        <v>12745</v>
+        <v>12744</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2123,10 +2099,10 @@
         <v>29</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2">
-        <v>12454</v>
+        <v>12745</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2134,10 +2110,10 @@
         <v>29</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C53" s="2">
-        <v>12483</v>
+        <v>12454</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2145,10 +2121,10 @@
         <v>29</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2">
-        <v>12747</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2156,10 +2132,10 @@
         <v>29</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2">
-        <v>12444</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2167,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2">
-        <v>12748</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2178,10 +2154,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2">
-        <v>12749</v>
+        <v>12748</v>
       </c>
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2189,10 +2165,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2">
-        <v>12750</v>
+        <v>12749</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2200,10 +2176,10 @@
         <v>29</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2">
-        <v>12751</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2211,10 +2187,10 @@
         <v>29</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2">
-        <v>12752</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2222,10 +2198,10 @@
         <v>29</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
-        <v>12753</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2233,10 +2209,10 @@
         <v>29</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2">
-        <v>12754</v>
+        <v>12753</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2244,10 +2220,10 @@
         <v>29</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>12755</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2255,10 +2231,10 @@
         <v>29</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2">
-        <v>12756</v>
+        <v>12755</v>
       </c>
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2266,10 +2242,10 @@
         <v>29</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2">
-        <v>12438</v>
+        <v>12756</v>
       </c>
     </row>
     <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2277,10 +2253,10 @@
         <v>29</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C66" s="2">
-        <v>12757</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2288,10 +2264,10 @@
         <v>29</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2">
-        <v>12758</v>
+        <v>12757</v>
       </c>
     </row>
     <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2299,10 +2275,10 @@
         <v>29</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2">
-        <v>12759</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2310,10 +2286,10 @@
         <v>29</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2">
-        <v>12760</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2321,10 +2297,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2">
-        <v>12761</v>
+        <v>12760</v>
       </c>
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2332,10 +2308,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2">
-        <v>12762</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2343,10 +2319,10 @@
         <v>29</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2">
-        <v>12763</v>
+        <v>12762</v>
       </c>
     </row>
     <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2354,10 +2330,10 @@
         <v>29</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2">
-        <v>12764</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2365,10 +2341,10 @@
         <v>29</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2">
-        <v>12765</v>
+        <v>12764</v>
       </c>
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2376,10 +2352,10 @@
         <v>29</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
-        <v>12766</v>
+        <v>12765</v>
       </c>
     </row>
     <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2387,10 +2363,10 @@
         <v>29</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>12436</v>
+        <v>12766</v>
       </c>
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2398,10 +2374,10 @@
         <v>29</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C77" s="2">
-        <v>12767</v>
+        <v>12436</v>
       </c>
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2409,10 +2385,10 @@
         <v>29</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2">
-        <v>12768</v>
+        <v>12767</v>
       </c>
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2420,10 +2396,10 @@
         <v>29</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2">
-        <v>12770</v>
+        <v>12768</v>
       </c>
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2431,10 +2407,10 @@
         <v>29</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2">
-        <v>12769</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2442,10 +2418,10 @@
         <v>29</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2">
-        <v>12771</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2453,10 +2429,10 @@
         <v>29</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2">
-        <v>12772</v>
+        <v>12771</v>
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2464,10 +2440,10 @@
         <v>29</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C83" s="2">
-        <v>12773</v>
+        <v>12772</v>
       </c>
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2475,10 +2451,10 @@
         <v>29</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2">
-        <v>12774</v>
+        <v>12773</v>
       </c>
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2486,10 +2462,10 @@
         <v>29</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2">
-        <v>12775</v>
+        <v>12774</v>
       </c>
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2497,10 +2473,10 @@
         <v>29</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C86" s="2">
-        <v>12776</v>
+        <v>12775</v>
       </c>
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2508,10 +2484,10 @@
         <v>29</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2">
-        <v>12777</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2519,10 +2495,10 @@
         <v>29</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2">
-        <v>12778</v>
+        <v>12777</v>
       </c>
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2530,10 +2506,10 @@
         <v>29</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2">
-        <v>12779</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2541,10 +2517,10 @@
         <v>29</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2">
-        <v>12780</v>
+        <v>12779</v>
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2552,343 +2528,343 @@
         <v>29</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C91" s="2">
-        <v>12781</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C92" s="2">
-        <v>12800</v>
+        <v>12781</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="2">
-        <v>12801</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C94" s="2">
-        <v>12865</v>
+        <v>12801</v>
       </c>
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>12866</v>
+        <v>12865</v>
       </c>
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>12871</v>
+        <v>12866</v>
       </c>
     </row>
     <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C97" s="2">
-        <v>12874</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C98" s="2">
+        <v>12874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="2">
         <v>12875</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="2">
-        <v>9727</v>
       </c>
     </row>
     <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="2">
-        <v>9728</v>
+        <v>9727</v>
       </c>
     </row>
     <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="2">
-        <v>11532</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="2">
+        <v>11532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="2">
         <v>12021</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2">
-        <v>12932</v>
       </c>
     </row>
     <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="2">
-        <v>12933</v>
+        <v>12932</v>
       </c>
     </row>
     <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2">
-        <v>10640</v>
+        <v>12933</v>
       </c>
     </row>
     <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="2">
-        <v>10883</v>
-      </c>
-      <c r="G106" s="24"/>
+        <v>10640</v>
+      </c>
     </row>
     <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="2">
-        <v>11255</v>
+        <v>10883</v>
       </c>
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="2">
+        <v>11255</v>
+      </c>
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2">
         <v>11256</v>
       </c>
-      <c r="G108" s="24"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="G109" s="24"/>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C110" s="2">
         <v>11032</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="3" t="s">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C111" s="3">
         <v>12020</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="7">
-        <v>9410</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="2">
-        <v>9409</v>
+      <c r="C112" s="7">
+        <v>9410</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C113" s="2">
-        <v>12025</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>18</v>
+      <c r="B114" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C114" s="2">
-        <v>10216</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C115" s="2">
-        <v>10215</v>
+        <v>10216</v>
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C116" s="2">
-        <v>9479</v>
+        <v>10215</v>
       </c>
     </row>
     <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="2">
+        <v>9479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C118" s="2">
         <v>12966</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="2">
-        <v>11298</v>
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="2">
-        <v>10060</v>
+        <v>11298</v>
       </c>
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2">
-        <v>12977</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C121" s="2">
-        <v>13034</v>
+        <v>12977</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2896,10 +2872,10 @@
         <v>28</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2">
-        <v>13035</v>
+        <v>13034</v>
       </c>
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2907,10 +2883,10 @@
         <v>28</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C123" s="2">
-        <v>13036</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2918,10 +2894,10 @@
         <v>28</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" s="2">
-        <v>13037</v>
+        <v>13036</v>
       </c>
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2929,10 +2905,10 @@
         <v>28</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C125" s="2">
-        <v>13039</v>
+        <v>13037</v>
       </c>
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2940,10 +2916,10 @@
         <v>28</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C126" s="2">
-        <v>13038</v>
+        <v>13039</v>
       </c>
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2951,10 +2927,10 @@
         <v>28</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C127" s="2">
-        <v>13040</v>
+        <v>13038</v>
       </c>
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2962,10 +2938,10 @@
         <v>28</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2">
-        <v>13041</v>
+        <v>13040</v>
       </c>
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2973,10 +2949,10 @@
         <v>28</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C129" s="2">
-        <v>13042</v>
+        <v>13041</v>
       </c>
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2984,10 +2960,10 @@
         <v>28</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2">
-        <v>13043</v>
+        <v>13042</v>
       </c>
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2995,10 +2971,10 @@
         <v>28</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2">
-        <v>13044</v>
+        <v>13043</v>
       </c>
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3006,10 +2982,10 @@
         <v>28</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2">
-        <v>12023</v>
+        <v>13044</v>
       </c>
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3017,10 +2993,10 @@
         <v>28</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C133" s="2">
-        <v>12024</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3028,10 +3004,10 @@
         <v>28</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C134" s="2">
-        <v>13045</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3039,10 +3015,10 @@
         <v>28</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C135" s="2">
-        <v>13047</v>
+        <v>13045</v>
       </c>
     </row>
     <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3050,10 +3026,10 @@
         <v>28</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2">
-        <v>13048</v>
+        <v>13047</v>
       </c>
     </row>
     <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3061,10 +3037,10 @@
         <v>28</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137" s="2">
-        <v>13049</v>
+        <v>13048</v>
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3072,10 +3048,10 @@
         <v>28</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2">
-        <v>13050</v>
+        <v>13049</v>
       </c>
     </row>
     <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3083,10 +3059,10 @@
         <v>28</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2">
-        <v>13051</v>
+        <v>13050</v>
       </c>
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3094,10 +3070,10 @@
         <v>28</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2">
-        <v>13052</v>
+        <v>13051</v>
       </c>
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3105,10 +3081,10 @@
         <v>28</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2">
-        <v>13053</v>
+        <v>13052</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3116,10 +3092,10 @@
         <v>28</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2">
-        <v>13054</v>
+        <v>13053</v>
       </c>
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3127,10 +3103,10 @@
         <v>28</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C143" s="2">
-        <v>13055</v>
+        <v>13054</v>
       </c>
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3138,10 +3114,10 @@
         <v>28</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2">
-        <v>13056</v>
+        <v>13055</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3149,10 +3125,10 @@
         <v>28</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2">
-        <v>12027</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3160,10 +3136,10 @@
         <v>28</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C146" s="2">
-        <v>13057</v>
+        <v>12027</v>
       </c>
     </row>
     <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3171,10 +3147,10 @@
         <v>28</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2">
-        <v>12028</v>
+        <v>13057</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3182,10 +3158,10 @@
         <v>28</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C148" s="2">
-        <v>13058</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3193,10 +3169,10 @@
         <v>28</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2">
-        <v>13059</v>
+        <v>13058</v>
       </c>
     </row>
     <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3204,10 +3180,10 @@
         <v>28</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C150" s="2">
-        <v>13046</v>
+        <v>13059</v>
       </c>
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3215,10 +3191,10 @@
         <v>28</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C151" s="2">
-        <v>13060</v>
+        <v>13046</v>
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3226,10 +3202,10 @@
         <v>28</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2">
-        <v>13061</v>
+        <v>13060</v>
       </c>
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3237,10 +3213,10 @@
         <v>28</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C153" s="2">
-        <v>13062</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3248,10 +3224,10 @@
         <v>28</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C154" s="2">
-        <v>12029</v>
+        <v>13062</v>
       </c>
     </row>
     <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3259,10 +3235,10 @@
         <v>28</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C155" s="2">
-        <v>13063</v>
+        <v>12029</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3270,10 +3246,10 @@
         <v>28</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C156" s="2">
-        <v>13064</v>
+        <v>13063</v>
       </c>
     </row>
     <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3281,10 +3257,10 @@
         <v>28</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C157" s="2">
-        <v>13065</v>
+        <v>13064</v>
       </c>
     </row>
     <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3292,10 +3268,10 @@
         <v>28</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C158" s="2">
-        <v>13066</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -3303,32 +3279,32 @@
         <v>28</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" s="2">
+        <v>13066</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C160" s="2">
         <v>11152</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B160" s="3" t="s">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C161" s="3">
         <v>13067</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C161" s="2">
-        <v>13068</v>
       </c>
     </row>
     <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -3336,31 +3312,21 @@
         <v>28</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C162" s="2">
-        <v>13069</v>
-      </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
-      <c r="N162" s="9"/>
-      <c r="O162" s="9"/>
+        <v>13068</v>
+      </c>
     </row>
     <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C163" s="2">
-        <v>13070</v>
+        <v>13069</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
@@ -3378,10 +3344,10 @@
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2">
-        <v>13071</v>
+        <v>13070</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -3399,10 +3365,10 @@
         <v>28</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C165" s="2">
-        <v>12032</v>
+        <v>13071</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -3420,10 +3386,10 @@
         <v>28</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C166" s="2">
-        <v>13072</v>
+        <v>12032</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -3441,10 +3407,10 @@
         <v>28</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C167" s="2">
-        <v>13073</v>
+        <v>13072</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -3459,13 +3425,13 @@
     </row>
     <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2">
-        <v>11378</v>
+        <v>13073</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -3480,13 +3446,13 @@
     </row>
     <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C169" s="2">
-        <v>12874</v>
+        <v>11378</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -3501,13 +3467,13 @@
     </row>
     <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C170" s="2">
-        <v>12875</v>
+        <v>12874</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -3522,158 +3488,162 @@
     </row>
     <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C171" s="2">
-        <v>12412</v>
-      </c>
+        <v>12875</v>
+      </c>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
     </row>
     <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="2">
+        <v>12412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="2">
         <v>12413</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="2">
-        <v>9980</v>
-      </c>
-      <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C174" s="2">
+        <v>9980</v>
+      </c>
+      <c r="G174" s="13"/>
+    </row>
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="2">
         <v>9741</v>
       </c>
-      <c r="G174" s="13"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="G175" s="13"/>
+    </row>
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C176" s="3">
         <v>9716</v>
       </c>
-      <c r="G175" s="13"/>
-    </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="G176" s="13"/>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C177" s="2">
         <v>9717</v>
-      </c>
-      <c r="G176" s="13"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="2">
-        <v>9694</v>
       </c>
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="2">
+        <v>9694</v>
+      </c>
+      <c r="G178" s="13"/>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="2">
         <v>9695</v>
       </c>
-      <c r="G178" s="13"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" s="2">
-        <v>10167</v>
-      </c>
-      <c r="F179" s="10"/>
       <c r="G179" s="13"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="2">
-        <v>10170</v>
+        <v>10167</v>
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="13"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
       <c r="J180" s="10"/>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C181" s="2">
-        <v>9327</v>
+        <v>10170</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="13"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
       <c r="J181" s="10"/>
       <c r="K181" s="10"/>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="2">
-        <v>9708</v>
+        <v>9327</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="13"/>
@@ -3682,15 +3652,15 @@
       <c r="J182" s="10"/>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C183" s="2">
-        <v>13088</v>
+        <v>9708</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="13"/>
@@ -3701,13 +3671,13 @@
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C184" s="2">
-        <v>13090</v>
+        <v>13088</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="13"/>
@@ -3718,13 +3688,13 @@
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C185" s="2">
-        <v>13124</v>
+        <v>13090</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="13"/>
@@ -3738,10 +3708,10 @@
         <v>28</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C186" s="2">
-        <v>13126</v>
+        <v>13124</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="13"/>
@@ -3755,15 +3725,15 @@
         <v>28</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C187" s="2">
-        <v>13127</v>
+        <v>13126</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="13"/>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10"/>
     </row>
@@ -3772,10 +3742,10 @@
         <v>28</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C188" s="2">
-        <v>13128</v>
+        <v>13127</v>
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="13"/>
@@ -3789,10 +3759,10 @@
         <v>28</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C189" s="2">
-        <v>13129</v>
+        <v>13128</v>
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="13"/>
@@ -3806,13 +3776,13 @@
         <v>28</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C190" s="2">
-        <v>13130</v>
+        <v>13129</v>
       </c>
       <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="G190" s="13"/>
       <c r="H190" s="10"/>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
@@ -3823,21 +3793,27 @@
         <v>28</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C191" s="2">
-        <v>13131</v>
-      </c>
+        <v>13130</v>
+      </c>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C192" s="2">
-        <v>13132</v>
+        <v>13131</v>
       </c>
     </row>
     <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3845,10 +3821,10 @@
         <v>28</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C193" s="2">
-        <v>13133</v>
+        <v>13132</v>
       </c>
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3856,21 +3832,21 @@
         <v>28</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C194" s="2">
-        <v>13134</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C195" s="2">
-        <v>13172</v>
+        <v>13134</v>
       </c>
     </row>
     <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3878,10 +3854,10 @@
         <v>203</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C196" s="2">
-        <v>13175</v>
+        <v>13172</v>
       </c>
     </row>
     <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3889,10 +3865,10 @@
         <v>203</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C197" s="2">
-        <v>13174</v>
+        <v>13175</v>
       </c>
     </row>
     <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3900,10 +3876,10 @@
         <v>203</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C198" s="2">
-        <v>13176</v>
+        <v>13174</v>
       </c>
     </row>
     <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3911,43 +3887,43 @@
         <v>203</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="2">
+        <v>13176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C200" s="2">
         <v>13173</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" s="2">
-        <v>11947</v>
       </c>
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C201" s="2">
-        <v>11948</v>
+        <v>11947</v>
       </c>
     </row>
     <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C202" s="2">
-        <v>11153</v>
+        <v>11948</v>
       </c>
     </row>
     <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3955,10 +3931,10 @@
         <v>2</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C203" s="2">
-        <v>13295</v>
+        <v>11153</v>
       </c>
     </row>
     <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3966,101 +3942,93 @@
         <v>2</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" s="2">
+        <v>13295</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C205" s="2">
         <v>11151</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="2">
-        <v>10859</v>
-      </c>
-      <c r="F205" s="13"/>
     </row>
     <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C206" s="2">
-        <v>10860</v>
+        <v>10859</v>
       </c>
       <c r="F206" s="13"/>
     </row>
     <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C207" s="2">
-        <v>13335</v>
+        <v>10860</v>
       </c>
       <c r="F207" s="13"/>
     </row>
     <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C208" s="2">
-        <v>13334</v>
+        <v>13530</v>
       </c>
       <c r="F208" s="13"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C209" s="2">
-        <v>13530</v>
-      </c>
-      <c r="F209" s="13"/>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C210" s="2">
         <v>13534</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C210" xr:uid="{D5C3FC00-6C5F-43D9-B41F-1DEC1B57846E}">
+  <autoFilter ref="A1:C209" xr:uid="{D5C3FC00-6C5F-43D9-B41F-1DEC1B57846E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="PACKAGE 1"/>
+        <filter val="PACKAGE 4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="CWB"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="C8:C167">
+  <conditionalFormatting sqref="C9:C168">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C167">
+  <conditionalFormatting sqref="C2:C168">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
+  <conditionalFormatting sqref="C208">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
+  <conditionalFormatting sqref="C208">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
